--- a/NSF_Rapid/CBC_PCR_Plan/immune_indexing_PCR.xlsx
+++ b/NSF_Rapid/CBC_PCR_Plan/immune_indexing_PCR.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinedesouza/Documents/SCTLD/Coral_Code/NSF_Rapid/CBC_PCR_Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52AA550-D46E-E545-B05A-BC02D9FAEA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8142A7-F7A6-3D48-BBF6-7FE49AD1D009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="980" windowWidth="19200" windowHeight="16040" xr2:uid="{8AF7FC96-2386-CE4E-A6B1-BB0EC57A2CE7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14800" windowHeight="16060" xr2:uid="{8AF7FC96-2386-CE4E-A6B1-BB0EC57A2CE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$97</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="217">
   <si>
     <t>X</t>
   </si>
@@ -68,9 +71,6 @@
     <t>redo</t>
   </si>
   <si>
-    <t>notes</t>
-  </si>
-  <si>
     <t>022024_BEL_CBC_T2_814_MCAV</t>
   </si>
   <si>
@@ -384,16 +384,328 @@
   </si>
   <si>
     <t>082024_BEL_CBC_T1_1479_PAST</t>
+  </si>
+  <si>
+    <t>062024_BEL_CBC_T2_1396_MCAV</t>
+  </si>
+  <si>
+    <t>3_4_2025</t>
+  </si>
+  <si>
+    <t>062024_BEL_CBC_T3_1415_MCAV</t>
+  </si>
+  <si>
+    <t>Diseased_Tissue</t>
+  </si>
+  <si>
+    <t>9_10_2024</t>
+  </si>
+  <si>
+    <t>UML_NARWHAL_R2_B11</t>
+  </si>
+  <si>
+    <t>3_2</t>
+  </si>
+  <si>
+    <t>122023_BEL_CBC_T1_507_PAST</t>
+  </si>
+  <si>
+    <t>1_21</t>
+  </si>
+  <si>
+    <t>122023_BEL_CBC_T3_532_MCAV</t>
+  </si>
+  <si>
+    <t>112023_BEL_CBC_T4_401_MCAV</t>
+  </si>
+  <si>
+    <t>4_30</t>
+  </si>
+  <si>
+    <t>082024_BEL_CBC_T3_1560_PSTR</t>
+  </si>
+  <si>
+    <t>112023_BEL_CBC_T2_310_MCAV</t>
+  </si>
+  <si>
+    <t>012024_BEL_CBC_T1_557_SSID</t>
+  </si>
+  <si>
+    <t>2_17_2025</t>
+  </si>
+  <si>
+    <t>penguin</t>
+  </si>
+  <si>
+    <t>052022_BEL_CBC_T2_1_SSID</t>
+  </si>
+  <si>
+    <t>012024_BEL_CBC_T2_601_OFAV</t>
+  </si>
+  <si>
+    <t>022024_BEL_CBC_T1_776_PSTR</t>
+  </si>
+  <si>
+    <t>042024_BEL_CBC_T4_1046_PSTR</t>
+  </si>
+  <si>
+    <t>012024_BEL_CBC_T3_631_MCAV</t>
+  </si>
+  <si>
+    <t>2_20_2025</t>
+  </si>
+  <si>
+    <t>112023_BEL_CBC_T2_307_SSID</t>
+  </si>
+  <si>
+    <t>2_99</t>
+  </si>
+  <si>
+    <t>092023_BEL_CBC_T2_181_PAST</t>
+  </si>
+  <si>
+    <t>062024_BEL_CBC_T1_1347_OANN</t>
+  </si>
+  <si>
+    <t>3_6_2025</t>
+  </si>
+  <si>
+    <t>092023_BEL_CBC_T3_195_PSTR</t>
+  </si>
+  <si>
+    <t>11_12_2024</t>
+  </si>
+  <si>
+    <t>042024_BEL_CBC_T1_927_PSTR</t>
+  </si>
+  <si>
+    <t>012024_BEL_CBC_T1_563_PSTR</t>
+  </si>
+  <si>
+    <t>012024_BEL_CBC_T3_633_MCAV</t>
+  </si>
+  <si>
+    <t>012024_BEL_CBC_T3_637_SSID</t>
+  </si>
+  <si>
+    <t>012024_BEL_CBC_T4_661_PSTR</t>
+  </si>
+  <si>
+    <t>112023_BEL_CBC_T2_304_OFAV</t>
+  </si>
+  <si>
+    <t>2_76</t>
+  </si>
+  <si>
+    <t>122023_BEL_CBC_T2_515_PAST</t>
+  </si>
+  <si>
+    <t>2_68</t>
+  </si>
+  <si>
+    <t>092023_BEL_CBC_T3_178_PAST</t>
+  </si>
+  <si>
+    <t>122023_BEL_CBC_T1_508_SSID</t>
+  </si>
+  <si>
+    <t>022024_BEL_CBC_T4_875_MCAV</t>
+  </si>
+  <si>
+    <t>11_26_2024</t>
+  </si>
+  <si>
+    <t>122022_BEL_CBC_T3_126_SSID</t>
+  </si>
+  <si>
+    <t>3_33</t>
+  </si>
+  <si>
+    <t>092023_BEL_CBC_T3_171_OFAV</t>
+  </si>
+  <si>
+    <t>062019_BEL_CBC_T2_18_MCAV</t>
+  </si>
+  <si>
+    <t>062019_BEL_CBC_T1_21_PAST</t>
+  </si>
+  <si>
+    <t>10_6_2024</t>
+  </si>
+  <si>
+    <t>3_7_2025</t>
+  </si>
+  <si>
+    <t>122022_BEL_CBC_T3_142_MCAV</t>
+  </si>
+  <si>
+    <t>8_12_2024</t>
+  </si>
+  <si>
+    <t>UML_NARWHAL_R2_B26</t>
+  </si>
+  <si>
+    <t>122022_BEL_CBC_T3_127_OFAV</t>
+  </si>
+  <si>
+    <t>6_22_2023</t>
+  </si>
+  <si>
+    <t>10_11_23</t>
+  </si>
+  <si>
+    <t>052022_BEL_CBC_T3_66_OFAV</t>
+  </si>
+  <si>
+    <t>6_21_2023</t>
+  </si>
+  <si>
+    <t>062019_BEL_CBC_T3_1_MCAV</t>
+  </si>
+  <si>
+    <t>6_13_2022</t>
+  </si>
+  <si>
+    <t>UML_NARWHAL_R2_B32, UML_NARWHAL_R2_B33, UML_NARWHAL_R2_B35</t>
+  </si>
+  <si>
+    <t>122022_BEL_CBC_T3_124_PAST</t>
+  </si>
+  <si>
+    <t>3_34</t>
+  </si>
+  <si>
+    <t>122022_BEL_CBC_T3_141_PSTR</t>
+  </si>
+  <si>
+    <t>7_12_2024</t>
+  </si>
+  <si>
+    <t>8_6_2024</t>
+  </si>
+  <si>
+    <t>3_20</t>
+  </si>
+  <si>
+    <t>012024_BEL_CBC_T3_627_PAST</t>
+  </si>
+  <si>
+    <t>3_10_2025</t>
+  </si>
+  <si>
+    <t>012024_BEL_CBC_T4_663_PSTR</t>
+  </si>
+  <si>
+    <t>012024_BEL_CBC_T2_605_SSID</t>
+  </si>
+  <si>
+    <t>092023_BEL_CBC_T3_173_OFAV</t>
+  </si>
+  <si>
+    <t>092023_BEL_CBC_T4_94_MCAV</t>
+  </si>
+  <si>
+    <t>062024_BEL_CBC_T1_1353_MCAV</t>
+  </si>
+  <si>
+    <t>022024_BEL_CBC_T2_804_OFAV</t>
+  </si>
+  <si>
+    <t>122023_BEL_CBC_T2_522_MCAV</t>
+  </si>
+  <si>
+    <t>022024_BEL_CBC_T4_874_OFAV</t>
+  </si>
+  <si>
+    <t>082024_BEL_CBC_T4_1607_PSTR</t>
+  </si>
+  <si>
+    <t>4_79</t>
+  </si>
+  <si>
+    <t>042024_BEL_CBC_T2_1026_OFAV</t>
+  </si>
+  <si>
+    <t>042024_BEL_CBC_T4_1047_MCAV</t>
+  </si>
+  <si>
+    <t>4_28</t>
+  </si>
+  <si>
+    <t>022024_BEL_CBC_T1_775_OANN</t>
+  </si>
+  <si>
+    <t>082024_BEL_CBC_T2_1510_PAST</t>
+  </si>
+  <si>
+    <t>042024_BEL_CBC_T2_1014_OFAV</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>052022_BEL_CBC_T3_19_MCAV</t>
+  </si>
+  <si>
+    <t>112023_BEL_CBC_T3_355_PSTR</t>
+  </si>
+  <si>
+    <t>122023_BEL_CBC_T3_526_SSID</t>
+  </si>
+  <si>
+    <t>3_5</t>
+  </si>
+  <si>
+    <t>022024_BEL_CBC_T3_851_PSTR</t>
+  </si>
+  <si>
+    <t>062019_BEL_CBC_T1_22_MCAV</t>
+  </si>
+  <si>
+    <t>11_26_2024; 2022</t>
+  </si>
+  <si>
+    <t>34.2; 6.67</t>
+  </si>
+  <si>
+    <t>UML_NARWHAL_R2_B33</t>
+  </si>
+  <si>
+    <t>11_5_2024 (from 2022 extract)</t>
+  </si>
+  <si>
+    <t>092023_BEL_CBC_T4_92_PSTR</t>
+  </si>
+  <si>
+    <t>122023_BEL_CBC_T2_513_SSID</t>
+  </si>
+  <si>
+    <t>Date_Index</t>
+  </si>
+  <si>
+    <t>3_11_2025</t>
+  </si>
+  <si>
+    <t>use 1/23 PCR</t>
+  </si>
+  <si>
+    <t>2/3 worked</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -755,18 +1067,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CB6E6C-5914-DD43-9339-6C673AA07194}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83:B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -798,967 +1111,2845 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
       <c r="E2">
         <v>58.2</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
       </c>
       <c r="E3">
         <v>18.600000000000001</v>
       </c>
       <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
       <c r="I3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>75.099999999999994</v>
       </c>
       <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
       <c r="I4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
       </c>
       <c r="E5">
         <v>31.8</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
       <c r="I6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>200</v>
+      </c>
+      <c r="K6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>2022</v>
       </c>
       <c r="E7">
-        <v>0.14000000000000001</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E8">
-        <v>7.73</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E9">
-        <v>13.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
         <v>37</v>
       </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
       <c r="I9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>61.2</v>
+        <v>7.73</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="K10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E11">
-        <v>199.6</v>
+        <v>13.9</v>
       </c>
       <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>1.27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
         <v>19</v>
       </c>
-      <c r="H11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>25.9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" t="s">
-        <v>54</v>
-      </c>
       <c r="I12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="K12" t="s">
+        <v>214</v>
+      </c>
+      <c r="L12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>203</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>2022</v>
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
       </c>
       <c r="E13">
-        <v>4.032</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="J13" t="s">
+        <v>200</v>
+      </c>
+      <c r="K13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E14">
-        <v>8.57</v>
+        <v>61.2</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="K14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="E15">
-        <v>2.67</v>
+        <v>64.2</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="J15" t="s">
+        <v>200</v>
+      </c>
+      <c r="K15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E16">
-        <v>98.8</v>
+        <v>199.6</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="K16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>3.2</v>
+        <v>25.9</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="K17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>66</v>
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>2022</v>
       </c>
       <c r="E18">
-        <v>4.32</v>
+        <v>4.032</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="K18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19">
-        <v>32.4</v>
+        <v>207</v>
+      </c>
+      <c r="E19" t="s">
+        <v>208</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>209</v>
+      </c>
+      <c r="G19" t="s">
+        <v>210</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="K19" t="s">
+        <v>214</v>
+      </c>
+      <c r="L19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E20">
-        <v>11.1</v>
+        <v>8.57</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>61</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
       </c>
       <c r="H20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="K20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E21">
-        <v>18.8</v>
+        <v>2.67</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>66</v>
+      </c>
+      <c r="G21" t="s">
+        <v>67</v>
       </c>
       <c r="H21" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="I21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="K21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E22">
-        <v>16.8</v>
+        <v>98.8</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>70</v>
+      </c>
+      <c r="G22" t="s">
+        <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="K22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="E23">
-        <v>2.54</v>
+        <v>3.2</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>75</v>
+      </c>
+      <c r="G23" t="s">
+        <v>76</v>
       </c>
       <c r="H23" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="K23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E24">
-        <v>9.16</v>
+        <v>4.32</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>66</v>
+      </c>
+      <c r="G24" t="s">
+        <v>62</v>
       </c>
       <c r="H24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" t="s">
         <v>57</v>
       </c>
-      <c r="I24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25">
-        <v>76</v>
+        <v>32.4</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="K25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E26">
-        <v>71</v>
+        <v>11.1</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H26" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="I26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="K26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" t="s">
-        <v>99</v>
+        <v>86</v>
+      </c>
+      <c r="E27">
+        <v>18.8</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="I27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="K27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="E28">
-        <v>71.400000000000006</v>
+        <v>16.8</v>
       </c>
       <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
         <v>19</v>
       </c>
-      <c r="H28" t="s">
-        <v>93</v>
-      </c>
       <c r="I28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="K28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="E29">
-        <v>15.9</v>
+        <v>2.54</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="I29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="K29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30">
+        <v>9.16</v>
+      </c>
+      <c r="F30" t="s">
         <v>36</v>
       </c>
-      <c r="E30">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="F30" t="s">
-        <v>37</v>
-      </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="K30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31">
-        <v>73.599999999999994</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="I31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="K31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="E32">
-        <v>71.8</v>
+        <v>71</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="I32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="K32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33">
-        <v>52.6</v>
+        <v>39</v>
+      </c>
+      <c r="E33" t="s">
+        <v>98</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="K33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="E34">
-        <v>2.16</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="H34" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="I34" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="K34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="E35">
-        <v>27.8</v>
+        <v>15.9</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="I35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="K35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F36" t="s">
         <v>36</v>
       </c>
-      <c r="E36">
-        <v>43.2</v>
-      </c>
-      <c r="F36" t="s">
-        <v>37</v>
-      </c>
       <c r="H36" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="I36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="K36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" t="s">
+        <v>96</v>
+      </c>
+      <c r="K37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38">
+        <v>71.8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" t="s">
+        <v>96</v>
+      </c>
+      <c r="K38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>52.6</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" t="s">
+        <v>108</v>
+      </c>
+      <c r="K39" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40">
+        <v>2.16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" t="s">
+        <v>110</v>
+      </c>
+      <c r="I40" t="s">
+        <v>108</v>
+      </c>
+      <c r="K40" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41">
+        <v>4.54</v>
+      </c>
+      <c r="F41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" t="s">
+        <v>81</v>
+      </c>
+      <c r="I41" t="s">
+        <v>108</v>
+      </c>
+      <c r="J41" t="s">
+        <v>200</v>
+      </c>
+      <c r="K41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42">
+        <v>27.8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" t="s">
+        <v>108</v>
+      </c>
+      <c r="K42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43">
+        <v>18.8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>95</v>
+      </c>
+      <c r="I43" t="s">
+        <v>108</v>
+      </c>
+      <c r="J43" t="s">
+        <v>200</v>
+      </c>
+      <c r="K43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44">
+        <v>43.2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" t="s">
+        <v>113</v>
+      </c>
+      <c r="I44" t="s">
+        <v>108</v>
+      </c>
+      <c r="K44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45">
+        <v>62.6</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" t="s">
+        <v>108</v>
+      </c>
+      <c r="K45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
         <v>115</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46">
+        <v>47.5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" t="s">
+        <v>116</v>
+      </c>
+      <c r="K46" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47">
+        <v>42</v>
+      </c>
+      <c r="F47" t="s">
+        <v>120</v>
+      </c>
+      <c r="H47" t="s">
+        <v>121</v>
+      </c>
+      <c r="I47" t="s">
+        <v>116</v>
+      </c>
+      <c r="K47" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48">
+        <v>1.58</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s">
+        <v>123</v>
+      </c>
+      <c r="I48" t="s">
+        <v>116</v>
+      </c>
+      <c r="K48" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49">
+        <v>93.8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" t="s">
+        <v>116</v>
+      </c>
+      <c r="K49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50">
+        <v>21.8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" t="s">
+        <v>126</v>
+      </c>
+      <c r="I50" t="s">
+        <v>116</v>
+      </c>
+      <c r="K50" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51">
+        <v>64.8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s">
+        <v>116</v>
+      </c>
+      <c r="K51" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52">
+        <v>68.2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>36</v>
+      </c>
+      <c r="H52" t="s">
+        <v>87</v>
+      </c>
+      <c r="I52" t="s">
+        <v>116</v>
+      </c>
+      <c r="K52" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53">
+        <v>44.6</v>
+      </c>
+      <c r="F53" t="s">
+        <v>131</v>
+      </c>
+      <c r="I53" t="s">
+        <v>116</v>
+      </c>
+      <c r="K53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" t="s">
+        <v>95</v>
+      </c>
+      <c r="I54" t="s">
+        <v>116</v>
+      </c>
+      <c r="K54" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55">
+        <v>89</v>
+      </c>
+      <c r="F55" t="s">
+        <v>131</v>
+      </c>
+      <c r="I55" t="s">
+        <v>116</v>
+      </c>
+      <c r="K55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
         <v>12</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E56">
+        <v>20.2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" t="s">
+        <v>77</v>
+      </c>
+      <c r="I56" t="s">
+        <v>116</v>
+      </c>
+      <c r="K56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57">
+        <v>50.7</v>
+      </c>
+      <c r="F57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I57" t="s">
+        <v>116</v>
+      </c>
+      <c r="K57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="F58" t="s">
+        <v>131</v>
+      </c>
+      <c r="I58" t="s">
+        <v>116</v>
+      </c>
+      <c r="K58" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59">
+        <v>45.4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" t="s">
+        <v>139</v>
+      </c>
+      <c r="I59" t="s">
+        <v>116</v>
+      </c>
+      <c r="K59" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60">
+        <v>5.5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>36</v>
+      </c>
+      <c r="H60" t="s">
+        <v>79</v>
+      </c>
+      <c r="I60" t="s">
+        <v>116</v>
+      </c>
+      <c r="K60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61">
+        <v>10.7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" t="s">
         <v>103</v>
       </c>
-      <c r="E37">
-        <v>62.6</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="I61" t="s">
+        <v>142</v>
+      </c>
+      <c r="K61" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62">
+        <v>8.52</v>
+      </c>
+      <c r="F62" t="s">
+        <v>36</v>
+      </c>
+      <c r="H62" t="s">
         <v>19</v>
       </c>
-      <c r="H37" t="s">
-        <v>111</v>
-      </c>
-      <c r="I37" t="s">
-        <v>109</v>
+      <c r="I62" t="s">
+        <v>142</v>
+      </c>
+      <c r="K62" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63">
+        <v>24.7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" t="s">
+        <v>77</v>
+      </c>
+      <c r="I63" t="s">
+        <v>142</v>
+      </c>
+      <c r="K63" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="F64" t="s">
+        <v>131</v>
+      </c>
+      <c r="I64" t="s">
+        <v>142</v>
+      </c>
+      <c r="K64" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65">
+        <v>49.8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>131</v>
+      </c>
+      <c r="I65" t="s">
+        <v>142</v>
+      </c>
+      <c r="K65" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66">
+        <v>6.46</v>
+      </c>
+      <c r="F66" t="s">
+        <v>131</v>
+      </c>
+      <c r="I66" t="s">
+        <v>142</v>
+      </c>
+      <c r="J66" t="s">
+        <v>200</v>
+      </c>
+      <c r="K66" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67">
+        <v>1.41</v>
+      </c>
+      <c r="F67" t="s">
+        <v>131</v>
+      </c>
+      <c r="I67" t="s">
+        <v>142</v>
+      </c>
+      <c r="K67" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68">
+        <v>96</v>
+      </c>
+      <c r="F68" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" t="s">
+        <v>151</v>
+      </c>
+      <c r="I68" t="s">
+        <v>142</v>
+      </c>
+      <c r="K68" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>86</v>
+      </c>
+      <c r="E69">
+        <v>9.86</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s">
+        <v>153</v>
+      </c>
+      <c r="I69" t="s">
+        <v>142</v>
+      </c>
+      <c r="K69" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70">
+        <v>11.1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>36</v>
+      </c>
+      <c r="H70" t="s">
+        <v>63</v>
+      </c>
+      <c r="I70" t="s">
+        <v>142</v>
+      </c>
+      <c r="K70" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>86</v>
+      </c>
+      <c r="E71">
+        <v>15.7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" t="s">
+        <v>42</v>
+      </c>
+      <c r="I71" t="s">
+        <v>142</v>
+      </c>
+      <c r="K71" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
+        <v>157</v>
+      </c>
+      <c r="E72">
+        <v>39</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" t="s">
+        <v>126</v>
+      </c>
+      <c r="I72" t="s">
+        <v>142</v>
+      </c>
+      <c r="K72" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>102</v>
+      </c>
+      <c r="E73">
+        <v>61</v>
+      </c>
+      <c r="F73" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" t="s">
+        <v>159</v>
+      </c>
+      <c r="I73" t="s">
+        <v>142</v>
+      </c>
+      <c r="K73" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s">
+        <v>144</v>
+      </c>
+      <c r="E74">
+        <v>43.8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>36</v>
+      </c>
+      <c r="H74" t="s">
+        <v>92</v>
+      </c>
+      <c r="I74" t="s">
+        <v>142</v>
+      </c>
+      <c r="K74" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75">
+        <v>1.61</v>
+      </c>
+      <c r="F75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75" t="s">
+        <v>23</v>
+      </c>
+      <c r="I75" t="s">
+        <v>142</v>
+      </c>
+      <c r="K75" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>60</v>
+      </c>
+      <c r="E76">
+        <v>1.9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>66</v>
+      </c>
+      <c r="G76" t="s">
+        <v>163</v>
+      </c>
+      <c r="H76" t="s">
+        <v>123</v>
+      </c>
+      <c r="I76" t="s">
+        <v>164</v>
+      </c>
+      <c r="K76" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s">
+        <v>166</v>
+      </c>
+      <c r="E77">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F77" t="s">
+        <v>167</v>
+      </c>
+      <c r="G77" t="s">
+        <v>163</v>
+      </c>
+      <c r="H77" t="s">
+        <v>33</v>
+      </c>
+      <c r="I77" t="s">
+        <v>164</v>
+      </c>
+      <c r="J77" t="s">
+        <v>200</v>
+      </c>
+      <c r="K77" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>169</v>
+      </c>
+      <c r="E78">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="F78" t="s">
+        <v>70</v>
+      </c>
+      <c r="G78" t="s">
+        <v>170</v>
+      </c>
+      <c r="H78" t="s">
+        <v>92</v>
+      </c>
+      <c r="I78" t="s">
+        <v>164</v>
+      </c>
+      <c r="K78" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>171</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s">
+        <v>172</v>
+      </c>
+      <c r="E79">
+        <v>17.8</v>
+      </c>
+      <c r="F79" t="s">
+        <v>70</v>
+      </c>
+      <c r="G79" t="s">
+        <v>170</v>
+      </c>
+      <c r="H79" t="s">
+        <v>51</v>
+      </c>
+      <c r="I79" t="s">
+        <v>164</v>
+      </c>
+      <c r="K79" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s">
+        <v>174</v>
+      </c>
+      <c r="E80">
+        <v>12.3</v>
+      </c>
+      <c r="F80" t="s">
+        <v>175</v>
+      </c>
+      <c r="G80" t="s">
+        <v>25</v>
+      </c>
+      <c r="H80" t="s">
+        <v>121</v>
+      </c>
+      <c r="I80" t="s">
+        <v>164</v>
+      </c>
+      <c r="K80" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s">
+        <v>65</v>
+      </c>
+      <c r="E81">
+        <v>2.7</v>
+      </c>
+      <c r="F81" t="s">
+        <v>66</v>
+      </c>
+      <c r="G81" t="s">
+        <v>67</v>
+      </c>
+      <c r="H81" t="s">
+        <v>177</v>
+      </c>
+      <c r="I81" t="s">
+        <v>164</v>
+      </c>
+      <c r="K81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s">
+        <v>179</v>
+      </c>
+      <c r="E82">
+        <v>6.21</v>
+      </c>
+      <c r="F82" t="s">
+        <v>167</v>
+      </c>
+      <c r="G82" t="s">
+        <v>180</v>
+      </c>
+      <c r="H82" t="s">
+        <v>181</v>
+      </c>
+      <c r="I82" t="s">
+        <v>164</v>
+      </c>
+      <c r="K82" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>182</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s">
+        <v>137</v>
+      </c>
+      <c r="E83">
+        <v>10.5</v>
+      </c>
+      <c r="F83" t="s">
+        <v>131</v>
+      </c>
+      <c r="I83" t="s">
+        <v>183</v>
+      </c>
+      <c r="K83" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>184</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>137</v>
+      </c>
+      <c r="E84">
+        <v>8.44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>131</v>
+      </c>
+      <c r="I84" t="s">
+        <v>183</v>
+      </c>
+      <c r="K84" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>130</v>
+      </c>
+      <c r="E85">
+        <v>59.8</v>
+      </c>
+      <c r="F85" t="s">
+        <v>131</v>
+      </c>
+      <c r="I85" t="s">
+        <v>183</v>
+      </c>
+      <c r="K85" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86">
+        <v>106</v>
+      </c>
+      <c r="F86" t="s">
+        <v>36</v>
+      </c>
+      <c r="H86" t="s">
+        <v>29</v>
+      </c>
+      <c r="I86" t="s">
+        <v>183</v>
+      </c>
+      <c r="K86" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>187</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s">
+        <v>144</v>
+      </c>
+      <c r="E87">
+        <v>9.32</v>
+      </c>
+      <c r="F87" t="s">
+        <v>36</v>
+      </c>
+      <c r="H87" t="s">
+        <v>45</v>
+      </c>
+      <c r="I87" t="s">
+        <v>183</v>
+      </c>
+      <c r="K87" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s">
+        <v>94</v>
+      </c>
+      <c r="E88">
+        <v>39.6</v>
+      </c>
+      <c r="F88" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" t="s">
+        <v>58</v>
+      </c>
+      <c r="I88" t="s">
+        <v>183</v>
+      </c>
+      <c r="K88" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>189</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89">
+        <v>86.8</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" t="s">
+        <v>151</v>
+      </c>
+      <c r="I89" t="s">
+        <v>183</v>
+      </c>
+      <c r="K89" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>190</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s">
+        <v>86</v>
+      </c>
+      <c r="E90">
+        <v>17.3</v>
+      </c>
+      <c r="F90" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>183</v>
+      </c>
+      <c r="K90" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>191</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s">
+        <v>157</v>
+      </c>
+      <c r="E91">
+        <v>35.9</v>
+      </c>
+      <c r="F91" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" t="s">
+        <v>49</v>
+      </c>
+      <c r="I91" t="s">
+        <v>183</v>
+      </c>
+      <c r="K91" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
+        <v>39</v>
+      </c>
+      <c r="E92">
+        <v>10.9</v>
+      </c>
+      <c r="F92" t="s">
+        <v>18</v>
+      </c>
+      <c r="H92" t="s">
+        <v>193</v>
+      </c>
+      <c r="I92" t="s">
+        <v>183</v>
+      </c>
+      <c r="K92" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93">
+        <v>72.8</v>
+      </c>
+      <c r="F93" t="s">
+        <v>22</v>
+      </c>
+      <c r="H93" t="s">
+        <v>151</v>
+      </c>
+      <c r="I93" t="s">
+        <v>183</v>
+      </c>
+      <c r="K93" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="F94" t="s">
+        <v>22</v>
+      </c>
+      <c r="H94" t="s">
+        <v>196</v>
+      </c>
+      <c r="I94" t="s">
+        <v>183</v>
+      </c>
+      <c r="K94" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95">
+        <v>13.8</v>
+      </c>
+      <c r="F95" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" t="s">
+        <v>103</v>
+      </c>
+      <c r="I95" t="s">
+        <v>183</v>
+      </c>
+      <c r="K95" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>198</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s">
+        <v>102</v>
+      </c>
+      <c r="E96">
+        <v>31.6</v>
+      </c>
+      <c r="F96" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" t="s">
+        <v>153</v>
+      </c>
+      <c r="I96" t="s">
+        <v>183</v>
+      </c>
+      <c r="K96" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>199</v>
+      </c>
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97">
+        <v>59</v>
+      </c>
+      <c r="F97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" t="s">
+        <v>72</v>
+      </c>
+      <c r="I97" t="s">
+        <v>183</v>
+      </c>
+      <c r="K97" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K97" xr:uid="{55CB6E6C-5914-DD43-9339-6C673AA07194}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>